--- a/similarities/split_global/harmonic_similarity_timestamps_52.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_52.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,90 +484,102 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:00:02.612267', '0:00:17.443474')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:26.923922', '0:01:32.322562')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['A#:min/F', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:03.820000', '0:00:08.620000')]</t>
+          <t>('0:00:03.660000', '0:00:09.640000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
+          <t>('0:00:42.880000', '0:00:45.100000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=3.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=3.66</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=42.88</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -577,93 +589,97 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>isophonics_12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['G:7', 'C:maj', 'C:min']]</t>
+          <t>['D/5', 'A/3', 'D']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:08.960000'), ('0:00:28.300000', '0:00:38.340000')]</t>
+          <t>('0:00:21.740249', '0:00:26.767369')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.500000'), ('0:01:03.700000', '0:01:06.700000')]</t>
+          <t>('0:00:01.640000', '0:00:23.480000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=28.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=21.740249</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
+          <t>['G:7', 'C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:00.761383', '0:01:09.294716')]</t>
+          <t>('0:00:18.870000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
+          <t>('0:01:14.700000', '0:01:27.040000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=74.7</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -672,195 +688,213 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['A', 'D/5', 'A', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+          <t>('0:02:07.600000', '0:02:13.760000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:02:08.760000', '0:02:13.560000')]</t>
+          <t>('0:00:00.939000', '0:00:05.544000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=0.939</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7']]</t>
+          <t>['A#:min', 'D#:min/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:06.040000', '0:00:15.040000')]</t>
+          <t>('0:00:25.480000', '0:00:32.800000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:04.120000', '0:01:10.240000')]</t>
+          <t>('0:00:07.840000', '0:00:11.420000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=25.48</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=64.12']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=7.84</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>isophonics_56</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['G:7', 'C', 'C/7']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['D:7', 'G:maj', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:44.300000', '0:01:07.100000')]</t>
+          <t>('0:00:12.318208', '0:00:18.355396')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.220000', '0:00:07.720000')]</t>
+          <t>('0:00:18.300000', '0:00:20.680000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=44.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=12.318208</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=18.3</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_184</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>isophonics_258</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F', 'A#:min']]</t>
+          <t>['D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'G:maj/5']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:13.360000', '0:00:20.940000')]</t>
+          <t>('0:00:25.920000', '0:00:28.360000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:10.820000', '0:00:17.080000')]</t>
+          <t>('0:00:31.138000', '0:00:34.969000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=25.92</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=31.138</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -870,32 +904,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:00:07.400000', '0:00:12.020000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:43.140000', '0:01:00.240000'), ('0:02:04.920000', '0:02:08.840000')]</t>
+          <t>('0:00:01.880000', '0:00:06.560000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=43.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=1.88</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -904,46 +938,48 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>isophonics_144</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db:maj6/2'], ['Ab', 'Db/5', 'Ab'], ['Bb:min7', 'Eb:7', 'Ab']]</t>
+          <t>['A:min', 'E:min', 'A:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:maj', 'C:maj/G', 'G:maj'], ['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['A#:min', 'F:min/G#', 'A#:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:03.858000', '0:01:20.628000'), ('0:00:00.243000', '0:00:09.120000'), ('0:00:23.575000', '0:00:34.995000')]</t>
+          <t>('0:00:28.536000', '0:00:33.834000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:12.260000', '0:01:15.560000'), ('0:00:18.320000', '0:00:25.820000'), ('0:01:14.200000', '0:01:21.180000')]</t>
+          <t>('0:01:33.840000', '0:01:45.400000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=63.858', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=23.575']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-144#t=28.536</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=72.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=74.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=93.84</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -952,250 +988,242 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.260000'), ('0:00:41.700000', '0:00:57.940000'), ('0:00:08.300000', '0:00:12.960000')]</t>
+          <t>('0:00:01.600000', '0:00:12.540000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:12.280000', '0:00:19.740000'), ('0:04:22.920000', '0:04:29.360000'), ('0:00:23.300000', '0:00:29.360000')]</t>
+          <t>('0:00:30.050000', '0:00:38.220000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=41.7', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['F:maj/A', 'A#:maj', 'F:maj/C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:03:49.340000', '0:04:05.220000')]</t>
+          <t>('0:01:01.480000', '0:01:03.580000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:21.080000', '0:00:24.960000')]</t>
+          <t>('0:00:03.389127', '0:00:22.035759')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=229.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=21.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=3.389127</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C:maj', 'F/5', 'C:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:02.100000', '0:01:11.780000')]</t>
+          <t>('0:00:10.619000', '0:00:16.742000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:16.840000', '0:00:24.560000')]</t>
+          <t>('0:00:17.581738', '0:00:30.271443')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=62.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:55.629773', '0:01:07.541609')]</t>
+          <t>('0:00:12.560000', '0:00:19.540000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:00:07.400000', '0:00:12.020000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=12.56</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G/5', 'D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:00.120000', '0:01:01.360000'), ('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:21.391000', '0:00:26.250000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:07.760000', '0:01:17.500000'), ('0:00:16.040000', '0:00:22.400000')]</t>
+          <t>('0:00:31.840929', '0:00:39.410634')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=21.391</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=31.840929</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
